--- a/Datagraphs.xlsx
+++ b/Datagraphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolfe\source\code repos\Comp 4300 Project analysis code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5EDC5D6-28E2-498A-A1FD-BC603F0348F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A14D9AC-1D1D-4655-B63D-3F672BA20111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36493357-5A1A-4898-AFD0-E0EEA03AF1C9}"/>
   </bookViews>
@@ -102,12 +102,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -122,8 +128,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5124,8 +5131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B406B21C-FAE9-47D7-B590-D9EA4E5E75F0}">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5235,7 +5242,7 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>1.73</v>
       </c>
     </row>
@@ -5336,7 +5343,7 @@
       <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>731.52</v>
       </c>
     </row>
@@ -5437,7 +5444,7 @@
       <c r="A39" t="s">
         <v>11</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>80</v>
       </c>
     </row>
@@ -5498,7 +5505,7 @@
       <c r="A47" t="s">
         <v>6</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>55</v>
       </c>
     </row>
@@ -5506,7 +5513,7 @@
       <c r="A48" t="s">
         <v>7</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>55</v>
       </c>
     </row>
@@ -5631,7 +5638,7 @@
       <c r="A64" t="s">
         <v>10</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>72</v>
       </c>
     </row>
